--- a/resdataTemp5.xlsx
+++ b/resdataTemp5.xlsx
@@ -525,7 +525,7 @@
         <v>952.9657080173359</v>
       </c>
       <c r="E3" t="n">
-        <v>364.8802291212119</v>
+        <v>454.0269441848397</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -559,7 +559,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>50.26669524594753</v>
+        <v>9.700203569091174</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -584,31 +584,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>572.1621415352366</v>
+        <v>543.2880952438102</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>1022.970064048657</v>
+        <v>965.0595665205819</v>
       </c>
       <c r="E5" t="n">
-        <v>415.1469243671594</v>
+        <v>463.7271477539309</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7716473074186595</v>
+        <v>0.7788015555395541</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1096373519870938</v>
+        <v>0.121264677490151</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03757300184117413</v>
+        <v>0.03139414955015952</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07437742954075729</v>
+        <v>0.06199374132573097</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006764909212315174</v>
+        <v>0.006545876094404511</v>
       </c>
     </row>
     <row r="6">
@@ -618,31 +618,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>479.5722929869692</v>
+        <v>467.317249423033</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>915.6434436769241</v>
+        <v>878.1094912000739</v>
       </c>
       <c r="E6" t="n">
-        <v>415.1469243671594</v>
+        <v>463.7271477539309</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7716473074186595</v>
+        <v>0.7788015555395541</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1096373519870938</v>
+        <v>0.121264677490151</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03757300184117413</v>
+        <v>0.03139414955015952</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07437742954075729</v>
+        <v>0.06199374132573097</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006764909212315174</v>
+        <v>0.006545876094404511</v>
       </c>
     </row>
     <row r="7">
@@ -652,31 +652,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262.0820107971751</v>
+        <v>295.6933685752559</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>672.5829453649654</v>
+        <v>687.3027723435642</v>
       </c>
       <c r="E7" t="n">
-        <v>415.1469243671594</v>
+        <v>463.7271477539309</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7716473074186595</v>
+        <v>0.7788015555395541</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1096373519870938</v>
+        <v>0.121264677490151</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03757300184117413</v>
+        <v>0.03139414955015952</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07437742954075729</v>
+        <v>0.06199374132573097</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006764909212315174</v>
+        <v>0.006545876094404511</v>
       </c>
     </row>
     <row r="8">
@@ -686,31 +686,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>194.0346378242637</v>
+        <v>226.4821938251668</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>598.9820714061201</v>
+        <v>612.4619788770005</v>
       </c>
       <c r="E8" t="n">
-        <v>415.1469243671594</v>
+        <v>463.7271477539309</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7716473074186595</v>
+        <v>0.7788015555395541</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1096373519870938</v>
+        <v>0.121264677490151</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03757300184117413</v>
+        <v>0.03139414955015952</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07437742954075729</v>
+        <v>0.06199374132573097</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006764909212315174</v>
+        <v>0.006545876094404511</v>
       </c>
     </row>
     <row r="9">
@@ -720,31 +720,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.1390669876187</v>
+        <v>225.5619073338153</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>598.0200835395668</v>
+        <v>611.4741682038132</v>
       </c>
       <c r="E9" t="n">
-        <v>415.1469243671594</v>
+        <v>463.7271477539309</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7716473074186595</v>
+        <v>0.7788015555395541</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1096373519870938</v>
+        <v>0.121264677490151</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03757300184117413</v>
+        <v>0.03139414955015952</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07437742954075729</v>
+        <v>0.06199374132573097</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006764909212315174</v>
+        <v>0.006545876094404511</v>
       </c>
     </row>
     <row r="10">
@@ -754,31 +754,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>141.9281951473983</v>
+        <v>165.598619715634</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>543.2671973481358</v>
+        <v>547.48329077005</v>
       </c>
       <c r="E10" t="n">
-        <v>415.1469243671594</v>
+        <v>463.7271477539309</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7716473074186595</v>
+        <v>0.7788015555395541</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1096373519870938</v>
+        <v>0.121264677490151</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03757300184117413</v>
+        <v>0.03139414955015952</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07437742954075729</v>
+        <v>0.06199374132573097</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006764909212315174</v>
+        <v>0.006545876094404511</v>
       </c>
     </row>
     <row r="11">
@@ -788,31 +788,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86.25706259004815</v>
+        <v>97.85427957586754</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>484.2419625491463</v>
+        <v>475.9478131173087</v>
       </c>
       <c r="E11" t="n">
-        <v>415.1469243671594</v>
+        <v>463.7271477539309</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7716473074186595</v>
+        <v>0.7788015555395541</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1096373519870938</v>
+        <v>0.121264677490151</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03757300184117413</v>
+        <v>0.03139414955015952</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07437742954075729</v>
+        <v>0.06199374132573097</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006764909212315174</v>
+        <v>0.006545876094404511</v>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>47.64825499580443</v>
+        <v>9.194910684098147</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -855,7 +855,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>2.618440250143137</v>
+        <v>0.5052928849930338</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6568572222539759</v>
+        <v>0.6560918596681173</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6872218486999014</v>
+        <v>0.686689075184725</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9558153942524239</v>
+        <v>0.955442402358918</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.10906796347571</v>
+        <v>72.00890206693522</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -993,12 +993,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.67568978720638</v>
+        <v>33.62259606364352</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493287393292163</v>
+        <v>0.8493281175039007</v>
       </c>
     </row>
     <row r="9">
@@ -1008,12 +1008,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.046236525770331</v>
+        <v>9.034532195836817</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8372120367701673</v>
+        <v>0.8372120942036115</v>
       </c>
     </row>
     <row r="10">
@@ -1023,12 +1023,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.305468516936658</v>
+        <v>5.297806460212549</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8149526852633961</v>
+        <v>0.814952624656011</v>
       </c>
     </row>
     <row r="11">
@@ -1038,12 +1038,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.08167313356234</v>
+        <v>24.05396734724233</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.8553455099049664</v>
+        <v>0.8555641323142847</v>
       </c>
     </row>
     <row r="12">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1579537936540758</v>
+        <v>0.1612965314237076</v>
       </c>
       <c r="C12" t="n">
-        <v>0.163563032861641</v>
+        <v>0.1670595164568291</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9657059476739466</v>
+        <v>0.9655034016897157</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3240759996319014</v>
+        <v>0.3169139663827707</v>
       </c>
     </row>
     <row r="13">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>321916.6579912599</v>
+        <v>47709.04917909655</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>482643.3637416511</v>
+        <v>71526.65828046258</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42405.81333566893</v>
+        <v>42411.43501610494</v>
       </c>
       <c r="C2" t="n">
-        <v>42834.15488451407</v>
+        <v>42839.83334960095</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91432.24572261497</v>
+        <v>91471.88958409462</v>
       </c>
       <c r="C3" t="n">
-        <v>92355.80376021714</v>
+        <v>92395.84806474204</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1166,10 +1166,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39476.01599503829</v>
+        <v>39472.61313399341</v>
       </c>
       <c r="C4" t="n">
-        <v>39874.76363135182</v>
+        <v>39871.32639797315</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>507.9177061824963</v>
+        <v>507.8776927230555</v>
       </c>
       <c r="C5" t="n">
-        <v>513.0481880631276</v>
+        <v>513.0077704273288</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32336.0548817085</v>
+        <v>32321.71771078859</v>
       </c>
       <c r="C6" t="n">
-        <v>32662.68169869545</v>
+        <v>32648.19970786726</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38124.28917629652</v>
+        <v>38111.92849780061</v>
       </c>
       <c r="C7" t="n">
-        <v>38509.38300636013</v>
+        <v>38496.89747252587</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80155.62081213342</v>
+        <v>15029.25922608938</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>252825.7674480971</v>
+        <v>37467.1313067756</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1414,10 +1414,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>498615804.027052</v>
+        <v>94532701.54709141</v>
       </c>
       <c r="C3" t="n">
-        <v>106.8880946780563</v>
+        <v>112.1332519276881</v>
       </c>
       <c r="D3" t="n">
         <v>10000</v>
@@ -1498,16 +1498,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>508.1468668792908</v>
+        <v>516.4761300617333</v>
       </c>
       <c r="C3" t="n">
-        <v>7.849029720232036</v>
+        <v>6.839510472211856</v>
       </c>
       <c r="D3" t="n">
-        <v>3421.367960439216</v>
+        <v>3452.998468633185</v>
       </c>
       <c r="E3" t="n">
-        <v>63.67806577011721</v>
+        <v>58.43808414497939</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -1519,16 +1519,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.8801175416232</v>
+        <v>287.7420277126507</v>
       </c>
       <c r="C4" t="n">
-        <v>8.216755692721668</v>
+        <v>7.200065879981399</v>
       </c>
       <c r="D4" t="n">
-        <v>2755.419218929706</v>
+        <v>2769.990372928128</v>
       </c>
       <c r="E4" t="n">
-        <v>63.67806577011721</v>
+        <v>58.43808414497939</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -1540,16 +1540,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.4524416884479</v>
+        <v>286.4793766009369</v>
       </c>
       <c r="C5" t="n">
-        <v>8.216755692721668</v>
+        <v>7.200065879981399</v>
       </c>
       <c r="D5" t="n">
-        <v>1319.584765944396</v>
+        <v>1271.030168875896</v>
       </c>
       <c r="E5" t="n">
-        <v>63.67806577011721</v>
+        <v>58.43808414497939</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -1561,16 +1561,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.572178871798</v>
+        <v>160.875076229358</v>
       </c>
       <c r="C6" t="n">
-        <v>8.216755692721668</v>
+        <v>7.200065879981399</v>
       </c>
       <c r="D6" t="n">
-        <v>699.6786420717932</v>
+        <v>683.1181790842885</v>
       </c>
       <c r="E6" t="n">
-        <v>63.67806577011721</v>
+        <v>58.43808414497939</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.1933490918998</v>
+        <v>154.8755391788804</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6700968065981642</v>
+        <v>0.5417363549962405</v>
       </c>
       <c r="D7" t="n">
-        <v>689.3633598107823</v>
+        <v>653.2507093998455</v>
       </c>
       <c r="E7" t="n">
-        <v>63.67806577011721</v>
+        <v>58.43808414497939</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -1603,16 +1603,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.6761787435209</v>
+        <v>168.9276682738485</v>
       </c>
       <c r="C8" t="n">
-        <v>0.664086042391924</v>
+        <v>0.5353376050051358</v>
       </c>
       <c r="D8" t="n">
-        <v>2794.02985426552</v>
+        <v>2785.178311056254</v>
       </c>
       <c r="E8" t="n">
-        <v>15.3278359229392</v>
+        <v>13.53250661666169</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -1624,16 +1624,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.1933489588467</v>
+        <v>154.8755390625539</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6700968065981642</v>
+        <v>0.5417363549962405</v>
       </c>
       <c r="D9" t="n">
-        <v>2760.900748548792</v>
+        <v>2751.666276904407</v>
       </c>
       <c r="E9" t="n">
-        <v>15.3278359229392</v>
+        <v>13.53250661666169</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.4964973052231</v>
+        <v>151.7215215115662</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6700968065981642</v>
+        <v>0.5417363549962405</v>
       </c>
       <c r="D10" t="n">
-        <v>681.9947359034466</v>
+        <v>639.6382440092344</v>
       </c>
       <c r="E10" t="n">
-        <v>79.00590169305642</v>
+        <v>71.97059076164108</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -1666,16 +1666,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>161.4964973052231</v>
+        <v>151.7215215115662</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6700968065981642</v>
+        <v>0.5417363549962405</v>
       </c>
       <c r="D11" t="n">
-        <v>681.9947359034466</v>
+        <v>639.6382440092344</v>
       </c>
       <c r="E11" t="n">
-        <v>88.60580938853951</v>
+        <v>84.6380033927214</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -1690,13 +1690,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6700968065981642</v>
+        <v>0.5417363549962405</v>
       </c>
       <c r="D12" t="n">
-        <v>251.726309716208</v>
+        <v>251.6185270265284</v>
       </c>
       <c r="E12" t="n">
-        <v>88.60432486756882</v>
+        <v>84.63241921567935</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -1708,16 +1708,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.49276162915976</v>
+        <v>43.64009048712069</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>199.4523031254708</v>
+        <v>183.3525285834935</v>
       </c>
       <c r="E13" t="n">
-        <v>73.86121212855294</v>
+        <v>71.97649152922025</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -1729,16 +1729,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.49276162915976</v>
+        <v>43.0647806364131</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>199.4523031254708</v>
+        <v>180.9486428659364</v>
       </c>
       <c r="E14" t="n">
-        <v>73.86121212855294</v>
+        <v>63.45127776288619</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -1750,16 +1750,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.815284024748</v>
+        <v>70.38484946807017</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04337286490355842</v>
+        <v>0.03172390527861779</v>
       </c>
       <c r="D15" t="n">
-        <v>325.8419121574657</v>
+        <v>294.6782677925075</v>
       </c>
       <c r="E15" t="n">
-        <v>13.22873327825051</v>
+        <v>59.01327266366025</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -1771,16 +1771,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.47387349439231</v>
+        <v>44.42819030661963</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04337273778595171</v>
+        <v>0.03171720743735106</v>
       </c>
       <c r="D16" t="n">
-        <v>190.4452532801483</v>
+        <v>186.0638099443257</v>
       </c>
       <c r="E16" t="n">
-        <v>13.22910429502444</v>
+        <v>59.00726294528742</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -1801,7 +1801,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>146.3137435689932</v>
+        <v>625.591224380381</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1822,7 +1822,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>18.43127596306276</v>
+        <v>78.80629813280677</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1834,16 +1834,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.87810763245713</v>
+        <v>57.12570927564269</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>254.896636657098</v>
+        <v>239.185344737116</v>
       </c>
       <c r="E19" t="n">
-        <v>18.43127596306276</v>
+        <v>78.80629813280677</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1855,16 +1855,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.0279518106244</v>
+        <v>98.61311992681891</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07759178398257506</v>
+        <v>0.09649152731328213</v>
       </c>
       <c r="D20" t="n">
-        <v>2738.831260537997</v>
+        <v>2643.471988469362</v>
       </c>
       <c r="E20" t="n">
-        <v>3.518311905650767</v>
+        <v>27.13362522615047</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>91.29755831394479</v>
+        <v>97.1917866875301</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0737121947834463</v>
+        <v>0.09166695094761802</v>
       </c>
       <c r="D21" t="n">
-        <v>382.4994982272327</v>
+        <v>407.3247411178186</v>
       </c>
       <c r="E21" t="n">
-        <v>3.518311905650767</v>
+        <v>27.13362522615047</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1897,16 +1897,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>77.80682336800552</v>
+        <v>68.27172630445497</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>325.7771694418391</v>
+        <v>285.853718036753</v>
       </c>
       <c r="E22" t="n">
-        <v>146.3137435689932</v>
+        <v>625.591224380381</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1927,7 +1927,7 @@
         <v>381.87174259587</v>
       </c>
       <c r="E23" t="n">
-        <v>146.3137435689932</v>
+        <v>625.591224380381</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.79457321337056</v>
+        <v>40.3218801638268</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>146.3137435689932</v>
+        <v>625.591224380381</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1960,16 +1960,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.35540493441636</v>
+        <v>71.5786649551689</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0456556472669036</v>
+        <v>0.03339358450380821</v>
       </c>
       <c r="D25" t="n">
-        <v>2663.953112189312</v>
+        <v>2518.82311786303</v>
       </c>
       <c r="E25" t="n">
-        <v>9.710391833309279</v>
+        <v>31.87412781649828</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1981,19 +1981,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>505.2743699174199</v>
+        <v>513.7092939172516</v>
       </c>
       <c r="C26" t="n">
-        <v>7.242452335680567</v>
+        <v>6.240284425485012</v>
       </c>
       <c r="D26" t="n">
-        <v>3421.367960439216</v>
+        <v>3452.998468633185</v>
       </c>
       <c r="E26" t="n">
-        <v>58.53337620561373</v>
+        <v>49.91866495925769</v>
       </c>
       <c r="F26" t="n">
-        <v>6.797965645459982</v>
+        <v>6.90365254324432</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2006,19 +2006,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>195.8149933210209</v>
+        <v>195.3083322030446</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5149779386477574</v>
+        <v>0.4039660049908338</v>
       </c>
       <c r="D27" t="n">
-        <v>2846.04338546661</v>
+        <v>2850.863481952691</v>
       </c>
       <c r="E27" t="n">
-        <v>58.53337620561373</v>
+        <v>49.91866495925769</v>
       </c>
       <c r="F27" t="n">
-        <v>7.026983286507444</v>
+        <v>7.146470362835825</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2031,19 +2031,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>174.2124317726783</v>
+        <v>166.3665685030808</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5818401383277034</v>
+        <v>0.4560825324402298</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.02985426552</v>
+        <v>2785.178311056254</v>
       </c>
       <c r="E28" t="n">
-        <v>15.3278359229392</v>
+        <v>13.53250661666169</v>
       </c>
       <c r="F28" t="n">
-        <v>6.858993203448345</v>
+        <v>6.947228036277664</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2056,19 +2056,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>190.8353776593131</v>
+        <v>188.6785283413848</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5149779386477574</v>
+        <v>0.4039660049908338</v>
       </c>
       <c r="D29" t="n">
-        <v>2835.249426783189</v>
+        <v>2836.854520609731</v>
       </c>
       <c r="E29" t="n">
-        <v>73.86121212855294</v>
+        <v>63.45117157591937</v>
       </c>
       <c r="F29" t="n">
-        <v>7.003843526011301</v>
+        <v>7.116352122209535</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2081,22 +2081,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>125.9220694948835</v>
+        <v>98.61308322012133</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2389043872840049</v>
+        <v>0.09650006249972565</v>
       </c>
       <c r="D30" t="n">
-        <v>2712.773281793507</v>
+        <v>2643.471942599431</v>
       </c>
       <c r="E30" t="n">
-        <v>73.86121212855294</v>
+        <v>63.45117157591937</v>
       </c>
       <c r="F30" t="n">
-        <v>7.063517780325498</v>
+        <v>7.290381295939058</v>
       </c>
       <c r="G30" t="n">
-        <v>99.92558055679575</v>
+        <v>98.6768327155575</v>
       </c>
     </row>
     <row r="31">
@@ -2106,22 +2106,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.080391636101</v>
+        <v>71.57791164206901</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1437663332996313</v>
+        <v>0.03339250796695663</v>
       </c>
       <c r="D31" t="n">
-        <v>2640.943042835302</v>
+        <v>2518.821173400705</v>
       </c>
       <c r="E31" t="n">
-        <v>73.86121212855294</v>
+        <v>36.3120267287574</v>
       </c>
       <c r="F31" t="n">
-        <v>7.106077402170047</v>
+        <v>7.411728674943866</v>
       </c>
       <c r="G31" t="n">
-        <v>97.74648903848644</v>
+        <v>95.2784878069011</v>
       </c>
     </row>
     <row r="32">
@@ -2131,22 +2131,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>110.080391636101</v>
+        <v>42.62913499370552</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1437663332996313</v>
+        <v>0.008484855703026492</v>
       </c>
       <c r="D32" t="n">
-        <v>2640.943042835302</v>
+        <v>2518.821173400705</v>
       </c>
       <c r="E32" t="n">
-        <v>73.86121212855294</v>
+        <v>4.44401481759877</v>
       </c>
       <c r="F32" t="n">
-        <v>7.106077402170047</v>
+        <v>8.018533446810471</v>
       </c>
       <c r="G32" t="n">
-        <v>97.74648903848644</v>
+        <v>97.52537035132673</v>
       </c>
     </row>
     <row r="33">
@@ -2156,22 +2156,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>47.12363978250585</v>
+        <v>24.78587223283756</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01069329333246577</v>
+        <v>0.003129689399599343</v>
       </c>
       <c r="D33" t="n">
-        <v>2314.903536583373</v>
+        <v>2514.288135424639</v>
       </c>
       <c r="E33" t="n">
-        <v>73.86121212855294</v>
+        <v>4.44401481759877</v>
       </c>
       <c r="F33" t="n">
-        <v>7.278240223160602</v>
+        <v>8.454399085426429</v>
       </c>
       <c r="G33" t="n">
-        <v>88.64350901065178</v>
+        <v>98.69668370159172</v>
       </c>
     </row>
     <row r="34">
@@ -2181,16 +2181,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.12363978163717</v>
+        <v>24.78587223283756</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01069329333246577</v>
+        <v>0.003129689399599343</v>
       </c>
       <c r="D34" t="n">
-        <v>197.3137815780697</v>
+        <v>103.9337788404441</v>
       </c>
       <c r="E34" t="n">
-        <v>73.86121212855294</v>
+        <v>4.44401481759877</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2202,16 +2202,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.49276162915976</v>
+        <v>26.8086499157908</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>199.4523031254708</v>
+        <v>113.0298754468205</v>
       </c>
       <c r="E35" t="n">
-        <v>73.86121212855294</v>
+        <v>4.44401481759877</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -2307,16 +2307,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>530.0441450269268</v>
+        <v>501.4820795524196</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3534.666826750112</v>
+        <v>3471.511113762187</v>
       </c>
       <c r="E40" t="n">
-        <v>38.57371477705537</v>
+        <v>7.232610175353337</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -2328,16 +2328,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80</v>
+        <v>47.9</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="D41" t="n">
-        <v>336.57</v>
+        <v>201.2441175284285</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>8.525213766334062</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -2349,16 +2349,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>545.0441450269268</v>
+        <v>516.4820795524196</v>
       </c>
       <c r="C42" t="n">
-        <v>3.529332486423451</v>
+        <v>6.838966521911999</v>
       </c>
       <c r="D42" t="n">
-        <v>3553.501802909404</v>
+        <v>3453.019087874549</v>
       </c>
       <c r="E42" t="n">
-        <v>40.84858005035517</v>
+        <v>8.525213766334062</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -2460,7 +2460,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>45.44181376132378</v>
+        <v>8.520385617414238</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>45.44181376132378</v>
+        <v>8.520385617414238</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>45.44181376132378</v>
+        <v>8.520385617414238</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>45.44181376132378</v>
+        <v>8.520385617414238</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>18.07474963795898</v>
+        <v>3.389033669793875</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2647,10 +2647,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944171</v>
+        <v>0.05094889585944192</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489638</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173056</v>
@@ -2665,42 +2665,18 @@
           <t>SGaccum-Separacc</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>106.8880946780563</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1363.172572215626</v>
-      </c>
-      <c r="E7" t="n">
-        <v>365775.9950500099</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.168738364456343</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0503573198627571</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0975081144748292</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.681387369772999</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.00200883143307171</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2708,42 +2684,18 @@
           <t>Separacc-Sepout</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>106.8880946780563</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1251.889012081232</v>
-      </c>
-      <c r="E8" t="n">
-        <v>336452.9776536557</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.1776861634230223</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.1026787406614215</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.7175197408719294</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.002115355043626928</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2751,42 +2703,18 @@
           <t>Sepout-COMB</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>106.8880946780563</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1251.889012081232</v>
-      </c>
-      <c r="E9" t="n">
-        <v>22.2836790037261</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.1776861634230223</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.1026787406614215</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.7175197408719294</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.002115355043626928</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2794,42 +2722,18 @@
           <t>Sepout-GTU</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>106.8880946780563</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1251.889012081232</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.081111111111111</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.1776861634230223</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1026787406614215</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.7175197408719294</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.002115355043626928</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2837,18 +2741,10 @@
           <t>AIR-COMP</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>15</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>293.1871693088577</v>
-      </c>
-      <c r="E11" t="n">
-        <v>951.5353556149116</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -2864,18 +2760,10 @@
           <t>COMP-COMB</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>343.3557890055408</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>631.5000402827663</v>
-      </c>
-      <c r="E12" t="n">
-        <v>951.5353556149116</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -2891,42 +2779,18 @@
           <t>COMB-TURB</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>750</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1184.419298154796</v>
-      </c>
-      <c r="E13" t="n">
-        <v>973.8190370166833</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.7502719448770792</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.1683489251023165</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.01681729847985475</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.009618871088167683</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.05494296045258207</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2934,42 +2798,18 @@
           <t>TURB-COOL</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>315.2958467580831</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>688.80014778345</v>
-      </c>
-      <c r="E14" t="n">
-        <v>973.8190370166833</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.7502719448770792</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.1683489251023165</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.01681729847985475</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.009618871088167683</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.05494296045258207</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2977,42 +2817,18 @@
           <t>COOL-EX</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>70</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>429.1772015914813</v>
-      </c>
-      <c r="E15" t="n">
-        <v>973.8190370166833</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.7502719448770792</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.1683489251023165</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.01681729847985475</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.009618871088167683</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.05494296045258207</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3062,16 +2878,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6568572222539759</v>
+        <v>1.745397706617101</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6872218486999014</v>
+        <v>1.930959080858186</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9558153942524239</v>
+        <v>0.9039019645312136</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8074</v>
+        <v>0.2439152645535714</v>
       </c>
     </row>
     <row r="3">
@@ -3104,11 +2920,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>159.7866</v>
+        <v>128.552863514597</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>33.83024154116811</v>
+        <v>31.73023581334969</v>
       </c>
     </row>
     <row r="6">
@@ -3119,7 +2935,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.288918960411444</v>
+        <v>6.222647857566368</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3131,7 +2947,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.10906796347571</v>
+        <v>46.87459274831446</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3144,12 +2960,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.67568978720638</v>
+        <v>30.05777466035067</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493287393292163</v>
+        <v>0.8484346377026251</v>
       </c>
     </row>
     <row r="9">
@@ -3159,12 +2975,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.046236525770331</v>
+        <v>12.27035113712511</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8372120367701673</v>
+        <v>0.7493119497573444</v>
       </c>
     </row>
     <row r="10">
@@ -3174,12 +2990,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.305468516936658</v>
+        <v>4.526322062904302</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8149526852633961</v>
+        <v>0.7487315244124486</v>
       </c>
     </row>
     <row r="11">
@@ -3189,12 +3005,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.08167313356234</v>
+        <v>0.02014488793437827</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.8553455099049664</v>
+        <v>0.03372970604306579</v>
       </c>
     </row>
     <row r="12">
@@ -3204,16 +3020,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1579537936540758</v>
+        <v>0.04042318810104639</v>
       </c>
       <c r="C12" t="n">
-        <v>0.163563032861641</v>
+        <v>0.0453064208525229</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9657059476739466</v>
+        <v>0.8922176446607437</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3240759996319014</v>
+        <v>0.07642926562499497</v>
       </c>
     </row>
     <row r="13">
@@ -3222,9 +3038,7 @@
           <t>SGgtu_comp</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>321916.6579912599</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -3235,9 +3049,7 @@
           <t>SGgtu_turb</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>482643.3637416511</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -3285,10 +3097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42405.81333566893</v>
+        <v>39917.89932111497</v>
       </c>
       <c r="C2" t="n">
-        <v>42834.15488451407</v>
+        <v>40321.11042536866</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3301,10 +3113,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91432.24572261497</v>
+        <v>87597.43295253924</v>
       </c>
       <c r="C3" t="n">
-        <v>92355.80376021714</v>
+        <v>88482.25550761539</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3317,10 +3129,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39476.01599503829</v>
+        <v>34358.6506129917</v>
       </c>
       <c r="C4" t="n">
-        <v>39874.76363135182</v>
+        <v>34705.70768989061</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3333,10 +3145,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>507.9177061824963</v>
+        <v>453.4938797380881</v>
       </c>
       <c r="C5" t="n">
-        <v>513.0481880631276</v>
+        <v>458.0746259980688</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3349,10 +3161,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32336.0548817085</v>
+        <v>29377.56400388409</v>
       </c>
       <c r="C6" t="n">
-        <v>32662.68169869545</v>
+        <v>29674.3070746304</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3365,10 +3177,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38124.28917629652</v>
+        <v>32841.21358496955</v>
       </c>
       <c r="C7" t="n">
-        <v>38509.38300636013</v>
+        <v>33172.94301512076</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3381,11 +3193,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>60.06803354652352</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="9">
@@ -3395,11 +3207,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>73.21044224701851</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="10">
@@ -3409,11 +3221,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6.343752912661179</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="11">
@@ -3423,7 +3235,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>24638.74213756232</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -3435,7 +3247,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>3083.334604652959</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -3447,7 +3259,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16103.58032210902</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -3459,7 +3271,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>5604.214635812325</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -3471,7 +3283,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4048.791421541902</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -3483,7 +3295,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80155.62081213342</v>
+        <v>15029.25922608938</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -3495,7 +3307,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>27765.59988809657</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -3506,9 +3318,7 @@
           <t>SGgtu_Qsw</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>252825.7674480971</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
@@ -3564,11 +3374,9 @@
           <t>PKM</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>498615804.027052</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>106.8880946780563</v>
+        <v>250</v>
       </c>
       <c r="D3" t="n">
         <v>10000</v>
@@ -3665,16 +3473,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>537.1749065748</v>
+        <v>542.1</v>
       </c>
       <c r="C3" t="n">
         <v>0.1</v>
       </c>
       <c r="D3" t="n">
-        <v>952.9657080173359</v>
+        <v>958.8691985312861</v>
       </c>
       <c r="E3" t="n">
-        <v>364.8802291212119</v>
+        <v>503.8</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -3698,33 +3506,17 @@
           <t>REF-SMESH</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>800</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>0.1</v>
       </c>
-      <c r="D4" t="n">
-        <v>1531.123730073688</v>
-      </c>
-      <c r="E4" t="n">
-        <v>50.26669524594753</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.710320591016015</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.00996710270335893</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.090538556815177</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.180531273012258</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.008642476453191781</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3732,33 +3524,19 @@
           <t>GTU-PEVD</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>572.1621415352366</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D5" t="n">
-        <v>1022.970064048657</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>415.1469243671594</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7716473074186595</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1096373519870938</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.03757300184117413</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.07437742954075729</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.006764909212315174</v>
-      </c>
+        <v>503.8</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3766,33 +3544,17 @@
           <t>PEVD-IVD</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>479.5722929869692</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
-      <c r="D6" t="n">
-        <v>915.6434436769241</v>
-      </c>
-      <c r="E6" t="n">
-        <v>415.1469243671594</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7716473074186595</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1096373519870938</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.03757300184117413</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.07437742954075729</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.006764909212315174</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3800,33 +3562,17 @@
           <t>IVD-EVD</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>262.0820107971751</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
-      <c r="D7" t="n">
-        <v>672.5829453649654</v>
-      </c>
-      <c r="E7" t="n">
-        <v>415.1469243671594</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7716473074186595</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1096373519870938</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.03757300184117413</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.07437742954075729</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.006764909212315174</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3834,33 +3580,17 @@
           <t>EVD-PPND</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>194.0346378242637</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
-      <c r="D8" t="n">
-        <v>598.9820714061201</v>
-      </c>
-      <c r="E8" t="n">
-        <v>415.1469243671594</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7716473074186595</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.1096373519870938</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.03757300184117413</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.07437742954075729</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.006764909212315174</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3868,33 +3598,17 @@
           <t>PPND-IND</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>193.1390669876187</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
-      <c r="D9" t="n">
-        <v>598.0200835395668</v>
-      </c>
-      <c r="E9" t="n">
-        <v>415.1469243671594</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.7716473074186595</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.1096373519870938</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.03757300184117413</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.07437742954075729</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.006764909212315174</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3902,33 +3616,17 @@
           <t>IND-GPK</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>141.9281951473983</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
-      <c r="D10" t="n">
-        <v>543.2671973481358</v>
-      </c>
-      <c r="E10" t="n">
-        <v>415.1469243671594</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.7716473074186595</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.1096373519870938</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.03757300184117413</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.07437742954075729</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.006764909212315174</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3936,33 +3634,17 @@
           <t>GPK-out</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>86.25706259004815</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
-      <c r="D11" t="n">
-        <v>484.2419625491463</v>
-      </c>
-      <c r="E11" t="n">
-        <v>415.1469243671594</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.7716473074186595</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.1096373519870938</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.03757300184117413</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.07437742954075729</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.006764909212315174</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3970,18 +3652,12 @@
           <t>AIR-REF</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>15</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
         <v>0.1</v>
       </c>
-      <c r="D12" t="n">
-        <v>288.39</v>
-      </c>
-      <c r="E12" t="n">
-        <v>47.64825499580443</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -3994,18 +3670,12 @@
           <t>CH4-REF</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>15</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D13" t="n">
-        <v>881.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.618440250143137</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -4087,16 +3757,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>508.1468668792908</v>
+        <v>508.1589338069068</v>
       </c>
       <c r="C3" t="n">
-        <v>7.849029720232036</v>
+        <v>7.838568378905613</v>
       </c>
       <c r="D3" t="n">
-        <v>3421.367960439216</v>
+        <v>3421.519369123052</v>
       </c>
       <c r="E3" t="n">
-        <v>63.67806577011721</v>
+        <v>63.68401492676915</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4108,16 +3778,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.8801175416232</v>
+        <v>296.7953372818687</v>
       </c>
       <c r="C4" t="n">
-        <v>8.216755692721668</v>
+        <v>8.206844911379138</v>
       </c>
       <c r="D4" t="n">
-        <v>2755.419218929706</v>
+        <v>2755.570272245403</v>
       </c>
       <c r="E4" t="n">
-        <v>63.67806577011721</v>
+        <v>63.68401492676915</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4129,16 +3799,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.4524416884479</v>
+        <v>295.3941391878865</v>
       </c>
       <c r="C5" t="n">
-        <v>8.216755692721668</v>
+        <v>8.206844911379138</v>
       </c>
       <c r="D5" t="n">
-        <v>1319.584765944396</v>
+        <v>1319.267511827483</v>
       </c>
       <c r="E5" t="n">
-        <v>63.67806577011721</v>
+        <v>63.68401492676915</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4150,16 +3820,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.572178871798</v>
+        <v>164.523975700738</v>
       </c>
       <c r="C6" t="n">
-        <v>8.216755692721668</v>
+        <v>8.206844911379138</v>
       </c>
       <c r="D6" t="n">
-        <v>699.6786420717932</v>
+        <v>699.4645588336074</v>
       </c>
       <c r="E6" t="n">
-        <v>63.67806577011721</v>
+        <v>63.68401492676915</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4171,16 +3841,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.1933490918998</v>
+        <v>163.1471692181689</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6700968065981642</v>
+        <v>0.6693229514928095</v>
       </c>
       <c r="D7" t="n">
-        <v>689.3633598107823</v>
+        <v>689.1622583203222</v>
       </c>
       <c r="E7" t="n">
-        <v>63.67806577011721</v>
+        <v>63.68401492676915</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4192,16 +3862,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.6761787435209</v>
+        <v>176.6407034671411</v>
       </c>
       <c r="C8" t="n">
-        <v>0.664086042391924</v>
+        <v>0.6632999493554204</v>
       </c>
       <c r="D8" t="n">
-        <v>2794.02985426552</v>
+        <v>2794.000440469605</v>
       </c>
       <c r="E8" t="n">
-        <v>15.3278359229392</v>
+        <v>15.31858207754095</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4213,16 +3883,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.1933489588467</v>
+        <v>163.1471690852127</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6700968065981642</v>
+        <v>0.6693229514928095</v>
       </c>
       <c r="D9" t="n">
-        <v>2760.900748548792</v>
+        <v>2760.851501948377</v>
       </c>
       <c r="E9" t="n">
-        <v>15.3278359229392</v>
+        <v>15.31858207754095</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4234,16 +3904,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.4964973052231</v>
+        <v>161.4434644785807</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6700968065981642</v>
+        <v>0.6693229514928095</v>
       </c>
       <c r="D10" t="n">
-        <v>681.9947359034466</v>
+        <v>681.7641397765158</v>
       </c>
       <c r="E10" t="n">
-        <v>79.00590169305642</v>
+        <v>79.0025970043101</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4255,16 +3925,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>161.4964973052231</v>
+        <v>161.4434644785807</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6700968065981642</v>
+        <v>0.6693229514928095</v>
       </c>
       <c r="D11" t="n">
-        <v>681.9947359034466</v>
+        <v>681.7641397765158</v>
       </c>
       <c r="E11" t="n">
-        <v>88.60580938853951</v>
+        <v>88.62445045046536</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4279,13 +3949,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6700968065981642</v>
+        <v>0.6693229514928095</v>
       </c>
       <c r="D12" t="n">
-        <v>251.726309716208</v>
+        <v>251.7256599297244</v>
       </c>
       <c r="E12" t="n">
-        <v>88.60432486756882</v>
+        <v>88.62001693726187</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4297,16 +3967,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.49276162915976</v>
+        <v>47.47399781129423</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>199.4523031254708</v>
+        <v>199.3738836272316</v>
       </c>
       <c r="E13" t="n">
-        <v>73.86121212855294</v>
+        <v>73.75666622252034</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4318,16 +3988,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.49276162915976</v>
+        <v>47.47399781129423</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>199.4523031254708</v>
+        <v>199.3738836272316</v>
       </c>
       <c r="E14" t="n">
-        <v>73.86121212855294</v>
+        <v>73.75666622252034</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4339,16 +4009,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.815284024748</v>
+        <v>70.38484946807017</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04337286490355842</v>
+        <v>0.03172390527861779</v>
       </c>
       <c r="D15" t="n">
-        <v>325.8419121574657</v>
+        <v>294.6782677925075</v>
       </c>
       <c r="E15" t="n">
-        <v>13.22873327825051</v>
+        <v>59.01327266366025</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4360,16 +4030,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.47387349439231</v>
+        <v>44.42819030661963</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04337273778595171</v>
+        <v>0.03171720743735106</v>
       </c>
       <c r="D16" t="n">
-        <v>190.4452532801483</v>
+        <v>186.0638099443257</v>
       </c>
       <c r="E16" t="n">
-        <v>13.22910429502444</v>
+        <v>59.00726294528742</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -4390,7 +4060,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>146.3137435689932</v>
+        <v>625.591224380381</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -4411,7 +4081,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>18.43127596306276</v>
+        <v>78.80629813280677</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -4423,16 +4093,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.87810763245713</v>
+        <v>57.12570927564269</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>254.896636657098</v>
+        <v>239.185344737116</v>
       </c>
       <c r="E19" t="n">
-        <v>18.43127596306276</v>
+        <v>78.80629813280677</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -4444,16 +4114,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.0279518106244</v>
+        <v>98.61311992681891</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07759178398257506</v>
+        <v>0.09649152731328213</v>
       </c>
       <c r="D20" t="n">
-        <v>2738.831260537997</v>
+        <v>2643.471988469362</v>
       </c>
       <c r="E20" t="n">
-        <v>3.518311905650767</v>
+        <v>27.13362522615047</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -4465,16 +4135,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>91.29755831394479</v>
+        <v>97.1917866875301</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0737121947834463</v>
+        <v>0.09166695094761802</v>
       </c>
       <c r="D21" t="n">
-        <v>382.4994982272327</v>
+        <v>407.3247411178186</v>
       </c>
       <c r="E21" t="n">
-        <v>3.518311905650767</v>
+        <v>27.13362522615047</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -4486,16 +4156,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>77.80682336800552</v>
+        <v>68.27172630445497</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>325.7771694418391</v>
+        <v>285.853718036753</v>
       </c>
       <c r="E22" t="n">
-        <v>146.3137435689932</v>
+        <v>625.591224380381</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -4516,7 +4186,7 @@
         <v>381.87174259587</v>
       </c>
       <c r="E23" t="n">
-        <v>146.3137435689932</v>
+        <v>625.591224380381</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -4528,7 +4198,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.79457321337056</v>
+        <v>40.3218801638268</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -4537,7 +4207,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>146.3137435689932</v>
+        <v>625.591224380381</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -4549,16 +4219,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.35540493441636</v>
+        <v>71.5786649551689</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0456556472669036</v>
+        <v>0.03339358450380821</v>
       </c>
       <c r="D25" t="n">
-        <v>2663.953112189312</v>
+        <v>2518.82311786303</v>
       </c>
       <c r="E25" t="n">
-        <v>9.710391833309279</v>
+        <v>31.87412781649828</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -4570,19 +4240,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>505.2743699174199</v>
+        <v>505.2823230854524</v>
       </c>
       <c r="C26" t="n">
-        <v>7.242452335680567</v>
+        <v>7.231064618078903</v>
       </c>
       <c r="D26" t="n">
-        <v>3421.367960439216</v>
+        <v>3421.519369123052</v>
       </c>
       <c r="E26" t="n">
-        <v>58.53337620561373</v>
+        <v>58.43808414497939</v>
       </c>
       <c r="F26" t="n">
-        <v>6.797965645459982</v>
+        <v>6.798845999549786</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -4595,19 +4265,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>195.8149933210209</v>
+        <v>195.8536355644588</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5149779386477574</v>
+        <v>0.5142659758723129</v>
       </c>
       <c r="D27" t="n">
-        <v>2846.04338546661</v>
+        <v>2846.165187760278</v>
       </c>
       <c r="E27" t="n">
-        <v>58.53337620561373</v>
+        <v>58.43808414497939</v>
       </c>
       <c r="F27" t="n">
-        <v>7.026983286507444</v>
+        <v>7.02786315510843</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -4620,19 +4290,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>174.2124317726783</v>
+        <v>174.1756293294249</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5818401383277034</v>
+        <v>0.5810474667439384</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.02985426552</v>
+        <v>2794.000440469605</v>
       </c>
       <c r="E28" t="n">
-        <v>15.3278359229392</v>
+        <v>15.31858207754095</v>
       </c>
       <c r="F28" t="n">
-        <v>6.858993203448345</v>
+        <v>6.859531017794056</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -4645,19 +4315,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>190.8353776593131</v>
+        <v>190.8544151912935</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5149779386477574</v>
+        <v>0.5142659758723129</v>
       </c>
       <c r="D29" t="n">
-        <v>2835.249426783189</v>
+        <v>2835.331048910841</v>
       </c>
       <c r="E29" t="n">
-        <v>73.86121212855294</v>
+        <v>73.75666622252034</v>
       </c>
       <c r="F29" t="n">
-        <v>7.003843526011301</v>
+        <v>7.004638691062562</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -4670,22 +4340,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>125.9220694948835</v>
+        <v>125.8753074319217</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2389043872840049</v>
+        <v>0.2385626087110464</v>
       </c>
       <c r="D30" t="n">
-        <v>2712.773281793507</v>
+        <v>2712.83998934234</v>
       </c>
       <c r="E30" t="n">
-        <v>73.86121212855294</v>
+        <v>73.75666622252034</v>
       </c>
       <c r="F30" t="n">
-        <v>7.063517780325498</v>
+        <v>7.064327181198565</v>
       </c>
       <c r="G30" t="n">
-        <v>99.92558055679575</v>
+        <v>99.93165227089206</v>
       </c>
     </row>
     <row r="31">
@@ -4695,22 +4365,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.080391636101</v>
+        <v>110.0377452218394</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1437663332996313</v>
+        <v>0.143560600036218</v>
       </c>
       <c r="D31" t="n">
-        <v>2640.943042835302</v>
+        <v>2641.011817984522</v>
       </c>
       <c r="E31" t="n">
-        <v>73.86121212855294</v>
+        <v>73.75666622252034</v>
       </c>
       <c r="F31" t="n">
-        <v>7.106077402170047</v>
+        <v>7.106890331574832</v>
       </c>
       <c r="G31" t="n">
-        <v>97.74648903848644</v>
+        <v>97.75259578318084</v>
       </c>
     </row>
     <row r="32">
@@ -4720,22 +4390,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>110.080391636101</v>
+        <v>110.0377452218394</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1437663332996313</v>
+        <v>0.143560600036218</v>
       </c>
       <c r="D32" t="n">
-        <v>2640.943042835302</v>
+        <v>2641.011817984522</v>
       </c>
       <c r="E32" t="n">
-        <v>73.86121212855294</v>
+        <v>73.75666622252034</v>
       </c>
       <c r="F32" t="n">
-        <v>7.106077402170047</v>
+        <v>7.106890331574832</v>
       </c>
       <c r="G32" t="n">
-        <v>97.74648903848644</v>
+        <v>97.75259578318084</v>
       </c>
     </row>
     <row r="33">
@@ -4745,22 +4415,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>47.12363978250585</v>
+        <v>47.09332084549078</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01069329333246577</v>
+        <v>0.01067688417379343</v>
       </c>
       <c r="D33" t="n">
-        <v>2314.903536583373</v>
+        <v>2314.88580688374</v>
       </c>
       <c r="E33" t="n">
-        <v>73.86121212855294</v>
+        <v>73.75666622252034</v>
       </c>
       <c r="F33" t="n">
-        <v>7.278240223160602</v>
+        <v>7.278810901921032</v>
       </c>
       <c r="G33" t="n">
-        <v>88.64350901065178</v>
+        <v>88.64536474728502</v>
       </c>
     </row>
     <row r="34">
@@ -4770,16 +4440,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.12363978163717</v>
+        <v>47.09332084476767</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01069329333246577</v>
+        <v>0.01067688417379343</v>
       </c>
       <c r="D34" t="n">
-        <v>197.3137815780697</v>
+        <v>197.1870096850569</v>
       </c>
       <c r="E34" t="n">
-        <v>73.86121212855294</v>
+        <v>73.75666622252034</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -4791,16 +4461,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.49276162915976</v>
+        <v>47.47399781129423</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>199.4523031254708</v>
+        <v>199.3738836272316</v>
       </c>
       <c r="E35" t="n">
-        <v>73.86121212855294</v>
+        <v>73.75666622252034</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -4896,16 +4566,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>530.0441450269268</v>
+        <v>501.4820795524196</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3534.666826750112</v>
+        <v>3471.511113762187</v>
       </c>
       <c r="E40" t="n">
-        <v>38.57371477705537</v>
+        <v>7.232610175353337</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -4938,16 +4608,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>545.0441450269268</v>
+        <v>516.4820795524196</v>
       </c>
       <c r="C42" t="n">
-        <v>3.529332486423451</v>
+        <v>6.838966521911999</v>
       </c>
       <c r="D42" t="n">
-        <v>3553.501802909404</v>
+        <v>3453.019087874549</v>
       </c>
       <c r="E42" t="n">
-        <v>40.84858005035517</v>
+        <v>8.525213766334062</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -5049,7 +4719,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>45.44181376132378</v>
+        <v>8.520385617414238</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5092,7 +4762,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>45.44181376132378</v>
+        <v>8.520385617414238</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5135,7 +4805,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>45.44181376132378</v>
+        <v>8.520385617414238</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5178,7 +4848,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>45.44181376132378</v>
+        <v>8.520385617414238</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5221,7 +4891,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>18.07474963795898</v>
+        <v>3.389033669793875</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5236,10 +4906,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944171</v>
+        <v>0.05094889585944192</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489638</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173056</v>
@@ -5255,16 +4925,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.8880946780563</v>
+        <v>112.1332519276881</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1363.172572215626</v>
+        <v>1378.369316396015</v>
       </c>
       <c r="E7" t="n">
-        <v>365775.9950500099</v>
+        <v>68582.99907187685</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5298,16 +4968,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106.8880946780563</v>
+        <v>112.1332519276881</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1251.889012081232</v>
+        <v>1267.459554382653</v>
       </c>
       <c r="E8" t="n">
-        <v>336452.9776536557</v>
+        <v>63084.93331006043</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -5341,16 +5011,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>106.8880946780563</v>
+        <v>112.1332519276881</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1251.889012081232</v>
+        <v>1267.459554382653</v>
       </c>
       <c r="E9" t="n">
-        <v>22.2836790037261</v>
+        <v>3.299787035420863</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5384,13 +5054,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.8880946780563</v>
+        <v>112.1332519276881</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1251.889012081232</v>
+        <v>1267.459554382653</v>
       </c>
       <c r="E10" t="n">
         <v>1.081111111111111</v>
@@ -5436,7 +5106,7 @@
         <v>293.1871693088577</v>
       </c>
       <c r="E11" t="n">
-        <v>951.5353556149116</v>
+        <v>141.0204969197757</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -5463,7 +5133,7 @@
         <v>631.5000402827663</v>
       </c>
       <c r="E12" t="n">
-        <v>951.5353556149116</v>
+        <v>141.0204969197757</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -5487,25 +5157,25 @@
         <v>1.2</v>
       </c>
       <c r="D13" t="n">
-        <v>1184.419298154796</v>
+        <v>1184.329755727388</v>
       </c>
       <c r="E13" t="n">
-        <v>973.8190370166833</v>
+        <v>144.3202863384184</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7502719448770792</v>
+        <v>0.7502955271977799</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1683489251023165</v>
+        <v>0.1683819655754223</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01681729847985475</v>
+        <v>0.0168039578518037</v>
       </c>
       <c r="I13" t="n">
-        <v>0.009618871088167683</v>
+        <v>0.009619173425612561</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05494296045258207</v>
+        <v>0.05489937594938142</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -5524,31 +5194,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>315.2958467580831</v>
+        <v>315.2908867389888</v>
       </c>
       <c r="C14" t="n">
         <v>0.1</v>
       </c>
       <c r="D14" t="n">
-        <v>688.80014778345</v>
+        <v>688.7191933097188</v>
       </c>
       <c r="E14" t="n">
-        <v>973.8190370166833</v>
+        <v>144.3202863384184</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7502719448770792</v>
+        <v>0.7502955271977799</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1683489251023165</v>
+        <v>0.1683819655754223</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01681729847985475</v>
+        <v>0.0168039578518037</v>
       </c>
       <c r="I14" t="n">
-        <v>0.009618871088167683</v>
+        <v>0.009619173425612561</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05494296045258207</v>
+        <v>0.05489937594938142</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -5573,25 +5243,25 @@
         <v>0.1</v>
       </c>
       <c r="D15" t="n">
-        <v>429.1772015914813</v>
+        <v>429.1082109775576</v>
       </c>
       <c r="E15" t="n">
-        <v>973.8190370166833</v>
+        <v>144.3202863384184</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7502719448770792</v>
+        <v>0.7502955271977799</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1683489251023165</v>
+        <v>0.1683819655754223</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01681729847985475</v>
+        <v>0.0168039578518037</v>
       </c>
       <c r="I15" t="n">
-        <v>0.009618871088167683</v>
+        <v>0.009619173425612561</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05494296045258207</v>
+        <v>0.05489937594938142</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>

--- a/resdataTemp5.xlsx
+++ b/resdataTemp5.xlsx
@@ -527,7 +527,7 @@
         <v>952.9657080173359</v>
       </c>
       <c r="E3" t="n">
-        <v>421.1016163642966</v>
+        <v>437.8430309320735</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>11.67494587719425</v>
+        <v>13.58892118595777</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>545.0533741721115</v>
+        <v>545.9628898260568</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>968.5625868802144</v>
+        <v>970.3693139382099</v>
       </c>
       <c r="E5" t="n">
-        <v>432.7765622414909</v>
+        <v>451.4319521180312</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7783678096606331</v>
+        <v>0.7781441493569233</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1205597390487384</v>
+        <v>0.1201962387745795</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03176875938649731</v>
+        <v>0.0319619262932964</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06274453632729386</v>
+        <v>0.06313168245647706</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006559155576837259</v>
+        <v>0.006566003118723783</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>526.0346116038232</v>
+        <v>468.3697453894343</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>946.6343203793035</v>
+        <v>881.4592635062519</v>
       </c>
       <c r="E6" t="n">
-        <v>432.7765622414909</v>
+        <v>451.4319521180312</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7783678096606331</v>
+        <v>0.7781441493569233</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1205597390487384</v>
+        <v>0.1201962387745795</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03176875938649731</v>
+        <v>0.0319619262932964</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06274453632729386</v>
+        <v>0.06313168245647706</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006559155576837259</v>
+        <v>0.006566003118723783</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>286.6848982516827</v>
+        <v>291.4294296579154</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>678.8258885707116</v>
+        <v>684.6762682462348</v>
       </c>
       <c r="E7" t="n">
-        <v>432.7765622414909</v>
+        <v>451.4319521180312</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7783678096606331</v>
+        <v>0.7781441493569233</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1205597390487384</v>
+        <v>0.1201962387745795</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03176875938649731</v>
+        <v>0.0319619262932964</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06274453632729386</v>
+        <v>0.06313168245647706</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006559155576837259</v>
+        <v>0.006566003118723783</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>268.1890668041755</v>
+        <v>223.0997203969673</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>658.7466815097945</v>
+        <v>610.8000037129445</v>
       </c>
       <c r="E8" t="n">
-        <v>432.7765622414909</v>
+        <v>451.4319521180312</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7783678096606331</v>
+        <v>0.7781441493569233</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1205597390487384</v>
+        <v>0.1201962387745795</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03176875938649731</v>
+        <v>0.0319619262932964</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06274453632729386</v>
+        <v>0.06313168245647706</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006559155576837259</v>
+        <v>0.006566003118723783</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>267.2346094122848</v>
+        <v>222.1808765111423</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>657.7127326092478</v>
+        <v>609.813763218557</v>
       </c>
       <c r="E9" t="n">
-        <v>432.7765622414909</v>
+        <v>451.4319521180312</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7783678096606331</v>
+        <v>0.7781441493569233</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1205597390487384</v>
+        <v>0.1201962387745795</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03176875938649731</v>
+        <v>0.0319619262932964</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06274453632729386</v>
+        <v>0.06313168245647706</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006559155576837259</v>
+        <v>0.006566003118723783</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.7617710757321</v>
+        <v>162.867133393733</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>560.6206554195747</v>
+        <v>546.5111536960871</v>
       </c>
       <c r="E10" t="n">
-        <v>432.7765622414909</v>
+        <v>451.4319521180312</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7783678096606331</v>
+        <v>0.7781441493569233</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1205597390487384</v>
+        <v>0.1201962387745795</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03176875938649731</v>
+        <v>0.0319619262932964</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06274453632729386</v>
+        <v>0.06313168245647706</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006559155576837259</v>
+        <v>0.006566003118723783</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.6041530734197</v>
+        <v>96.4890271560386</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>475.8767392131888</v>
+        <v>476.3966591327042</v>
       </c>
       <c r="E11" t="n">
-        <v>432.7765622414909</v>
+        <v>451.4319521180312</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7783678096606331</v>
+        <v>0.7781441493569233</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1205597390487384</v>
+        <v>0.1201962387745795</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03176875938649731</v>
+        <v>0.0319619262932964</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06274453632729386</v>
+        <v>0.06313168245647706</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006559155576837259</v>
+        <v>0.006566003118723783</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>11.06678677595411</v>
+        <v>12.8810612796075</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6081591012401527</v>
+        <v>0.7078599063502831</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.520355573136333</v>
+        <v>11.97398882693314</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.520355573136333</v>
+        <v>11.97398882693314</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.520355573136333</v>
+        <v>11.97398882693314</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.520355573136333</v>
+        <v>11.97398882693314</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.389021719505005</v>
+        <v>4.762724730823547</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,10 +1149,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944172</v>
+        <v>0.05094889585944165</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173058</v>
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.1332519276881</v>
+        <v>17.08680539307522</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1378.369316396015</v>
+        <v>1107.023503591764</v>
       </c>
       <c r="E7" t="n">
         <v>68582.99907187685</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>112.1332519276881</v>
+        <v>17.08680539307522</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1267.459554382653</v>
+        <v>991.7578066028003</v>
       </c>
       <c r="E8" t="n">
-        <v>63084.93331006043</v>
+        <v>63155.31801245845</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1229,22 +1229,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1776861634230223</v>
+        <v>0.1775656238571722</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.0006783846503744467</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1026787406614215</v>
+        <v>0.102609084979837</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7175197408719294</v>
+        <v>0.7170329864933812</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002115355043626928</v>
+        <v>0.002113920019235239</v>
       </c>
     </row>
     <row r="9">
@@ -1254,16 +1254,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>112.1332519276881</v>
+        <v>17.08680539307522</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1267.459554382653</v>
+        <v>991.7578066028003</v>
       </c>
       <c r="E9" t="n">
-        <v>3.299787035420863</v>
+        <v>3.304674861976281</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1272,22 +1272,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1776861634230223</v>
+        <v>0.1775656238571722</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.0006783846503744467</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1026787406614215</v>
+        <v>0.102609084979837</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7175197408719294</v>
+        <v>0.7170329864933812</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002115355043626928</v>
+        <v>0.002113920019235239</v>
       </c>
     </row>
     <row r="10">
@@ -1297,13 +1297,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112.1332519276881</v>
+        <v>17.08680539307522</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1267.459554382653</v>
+        <v>991.7578066028003</v>
       </c>
       <c r="E10" t="n">
         <v>1.081111111111111</v>
@@ -1315,22 +1315,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1776861634230223</v>
+        <v>0.1775656238571722</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.0006783846503744467</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1026787406614215</v>
+        <v>0.102609084979837</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7175197408719294</v>
+        <v>0.7170329864933812</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002115355043626928</v>
+        <v>0.002113920019235239</v>
       </c>
     </row>
     <row r="11">
@@ -1349,7 +1349,7 @@
         <v>293.1871693088577</v>
       </c>
       <c r="E11" t="n">
-        <v>141.0204969197757</v>
+        <v>138.9866152673415</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -1376,7 +1376,7 @@
         <v>631.5000402827663</v>
       </c>
       <c r="E12" t="n">
-        <v>141.0204969197757</v>
+        <v>138.9866152673415</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -1400,25 +1400,25 @@
         <v>1.2</v>
       </c>
       <c r="D13" t="n">
-        <v>1184.329755727388</v>
+        <v>1186.030896900073</v>
       </c>
       <c r="E13" t="n">
-        <v>144.3202863384184</v>
+        <v>142.2912928089796</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7502955271977799</v>
+        <v>0.749836338290723</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1683819655754223</v>
+        <v>0.1677747738550018</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0168039578518037</v>
+        <v>0.01704564805282844</v>
       </c>
       <c r="I13" t="n">
-        <v>0.009619173425612561</v>
+        <v>0.009613286388342603</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05489937594938142</v>
+        <v>0.05572995341310404</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1437,31 +1437,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>315.2908867389888</v>
+        <v>315.3835273149123</v>
       </c>
       <c r="C14" t="n">
         <v>0.1</v>
       </c>
       <c r="D14" t="n">
-        <v>688.7191933097188</v>
+        <v>690.2556821970529</v>
       </c>
       <c r="E14" t="n">
-        <v>144.3202863384184</v>
+        <v>142.2912928089796</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7502955271977799</v>
+        <v>0.749836338290723</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1683819655754223</v>
+        <v>0.1677747738550018</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0168039578518037</v>
+        <v>0.01704564805282844</v>
       </c>
       <c r="I14" t="n">
-        <v>0.009619173425612561</v>
+        <v>0.009613286388342603</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05489937594938142</v>
+        <v>0.05572995341310404</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1480,31 +1480,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70</v>
+        <v>57.9</v>
       </c>
       <c r="C15" t="n">
         <v>0.1</v>
       </c>
       <c r="D15" t="n">
-        <v>429.1082109775576</v>
+        <v>417.8473004634852</v>
       </c>
       <c r="E15" t="n">
-        <v>144.3202863384184</v>
+        <v>142.2912928089796</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7502955271977799</v>
+        <v>0.749836338290723</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1683819655754223</v>
+        <v>0.1677747738550018</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0168039578518037</v>
+        <v>0.01704564805282844</v>
       </c>
       <c r="I15" t="n">
-        <v>0.009619173425612561</v>
+        <v>0.009613286388342603</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05489937594938142</v>
+        <v>0.05572995341310404</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5817203843217429</v>
+        <v>0.6504861043669817</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6416816363855585</v>
+        <v>0.6821021641982286</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9065560728813072</v>
+        <v>0.9536490844177138</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.99041776002425</v>
+        <v>56.41894675397509</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.95903603151596</v>
+        <v>33.96070286260467</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8396187047363669</v>
+        <v>0.8488220563103787</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.559322278263327</v>
+        <v>13.51239221560865</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8361700267010301</v>
+        <v>0.7831403102433002</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.361404302548328</v>
+        <v>6.275064766477849</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8143678524922733</v>
+        <v>0.6357730572155903</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.11065514769663</v>
+        <v>2.670786909283926</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.8305342671140019</v>
+        <v>0.5209243195476405</v>
       </c>
     </row>
     <row r="12">
@@ -1706,16 +1706,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07578837590183347</v>
+        <v>0.1657949063586857</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07707358906557681</v>
+        <v>0.184364883258969</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9833248564219602</v>
+        <v>0.8992759544441072</v>
       </c>
       <c r="E12" t="n">
-        <v>0.75</v>
+        <v>0.07642926562499497</v>
       </c>
     </row>
     <row r="13">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47709.04917909655</v>
+        <v>47020.9608380404</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71526.65828046258</v>
+        <v>70544.4962427422</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11195.62650760575</v>
+        <v>42431.27212938615</v>
       </c>
       <c r="C2" t="n">
-        <v>11308.71364404622</v>
+        <v>42859.8708377638</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127103.0932362339</v>
+        <v>91859.99301275285</v>
       </c>
       <c r="C3" t="n">
-        <v>128386.9628648827</v>
+        <v>92787.87173005339</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10328.35038688723</v>
+        <v>39994.05373756103</v>
       </c>
       <c r="C4" t="n">
-        <v>10432.67715847195</v>
+        <v>40398.03407834448</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>531.7308596824533</v>
+        <v>508.1318400048236</v>
       </c>
       <c r="C5" t="n">
-        <v>537.1018784671246</v>
+        <v>513.2644848533572</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47707.03745599487</v>
+        <v>32834.19858318585</v>
       </c>
       <c r="C6" t="n">
-        <v>48188.92672322714</v>
+        <v>33165.85715473318</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46432.69435533099</v>
+        <v>38525.72841824956</v>
       </c>
       <c r="C7" t="n">
-        <v>46901.7114700313</v>
+        <v>38914.87719015108</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,11 +1883,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>54.68365135312699</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="9">
@@ -1897,11 +1897,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>68.06827132591059</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="10">
@@ -1911,11 +1911,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5.874365768547075</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="11">
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15029.20623045501</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>37467.1313067756</v>
+        <v>38761.34080887138</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -2025,7 +2025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2049,6 +2049,11 @@
           <t>V</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Qnr</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2059,6 +2064,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2067,13 +2073,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94532701.54709141</v>
+        <v>75922991.91937982</v>
       </c>
       <c r="C3" t="n">
-        <v>112.1332519276881</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10000</v>
+        <v>17.08680539307522</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>23.51649737181187</v>
       </c>
     </row>
   </sheetData>
@@ -2250,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.5567996355875</v>
+        <v>519.6741278602983</v>
       </c>
       <c r="C3" t="n">
-        <v>5.643876049181843</v>
+        <v>6.378259034718148</v>
       </c>
       <c r="D3" t="n">
-        <v>2942.119034433544</v>
+        <v>3465.685522046174</v>
       </c>
       <c r="E3" t="n">
-        <v>59.27025651400267</v>
+        <v>57.59864128122884</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2271,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.5603261955939</v>
+        <v>283.4210838681292</v>
       </c>
       <c r="C4" t="n">
-        <v>6.09019686323475</v>
+        <v>6.7542960417966</v>
       </c>
       <c r="D4" t="n">
-        <v>2783.600031242326</v>
+        <v>2775.76260093504</v>
       </c>
       <c r="E4" t="n">
-        <v>59.27025651400267</v>
+        <v>57.59864128122884</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2292,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>198.5304743940975</v>
+        <v>282.2792264029774</v>
       </c>
       <c r="C5" t="n">
-        <v>6.09019686323475</v>
+        <v>6.7542960417966</v>
       </c>
       <c r="D5" t="n">
-        <v>847.5691710778307</v>
+        <v>1248.782164365322</v>
       </c>
       <c r="E5" t="n">
-        <v>59.27025651400267</v>
+        <v>57.59864128122884</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2313,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.4852782456724</v>
+        <v>159.1785841590785</v>
       </c>
       <c r="C6" t="n">
-        <v>6.09019686323475</v>
+        <v>6.7542960417966</v>
       </c>
       <c r="D6" t="n">
-        <v>702.406233915865</v>
+        <v>675.5366295960116</v>
       </c>
       <c r="E6" t="n">
-        <v>59.27025651400267</v>
+        <v>57.59864128122884</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2334,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.5272371089528</v>
+        <v>152.4169753868518</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6426234398143824</v>
+        <v>0.5078251186736905</v>
       </c>
       <c r="D7" t="n">
-        <v>682.1122822561392</v>
+        <v>642.6167271979695</v>
       </c>
       <c r="E7" t="n">
-        <v>59.27025651400267</v>
+        <v>57.59864128122884</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2355,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.8847860129671</v>
+        <v>166.8024015556943</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6329323645628799</v>
+        <v>0.501655081758403</v>
       </c>
       <c r="D8" t="n">
-        <v>2782.597878630632</v>
+        <v>2782.80148178738</v>
       </c>
       <c r="E8" t="n">
-        <v>18.85038739784712</v>
+        <v>12.96472959171603</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2376,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.5272369793555</v>
+        <v>152.4169752752167</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6426234398143824</v>
+        <v>0.5078251186736905</v>
       </c>
       <c r="D9" t="n">
-        <v>2759.109432568631</v>
+        <v>2748.800730198945</v>
       </c>
       <c r="E9" t="n">
-        <v>18.85038739784712</v>
+        <v>12.96472959171603</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2397,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.2931050031891</v>
+        <v>149.1846942522129</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6426234398143824</v>
+        <v>0.5078251186736905</v>
       </c>
       <c r="D10" t="n">
-        <v>650.7956662619963</v>
+        <v>628.6883520618046</v>
       </c>
       <c r="E10" t="n">
-        <v>78.1206439118498</v>
+        <v>70.56337087294487</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2418,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.2931050031891</v>
+        <v>149.1846942522129</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6426234398143824</v>
+        <v>0.5078251186736905</v>
       </c>
       <c r="D11" t="n">
-        <v>650.7956662619963</v>
+        <v>628.6883520618046</v>
       </c>
       <c r="E11" t="n">
-        <v>90.97748970405782</v>
+        <v>83.09611586087109</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2442,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6426234398143824</v>
+        <v>0.5078251186736905</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7032409511858</v>
+        <v>251.590051618416</v>
       </c>
       <c r="E12" t="n">
-        <v>90.97561169696219</v>
+        <v>83.10115460229419</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2460,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.28200610546997</v>
+        <v>43.93567726378632</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>186.0347911926626</v>
+        <v>184.5876368444013</v>
       </c>
       <c r="E13" t="n">
-        <v>78.12493207088043</v>
+        <v>70.56903480065898</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2481,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43.81863811326633</v>
+        <v>43.13421602315918</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>184.0985872822939</v>
+        <v>181.2387699972842</v>
       </c>
       <c r="E14" t="n">
-        <v>69.30246949308811</v>
+        <v>58.75587830792252</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2502,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>69.84025624854121</v>
+        <v>71.37811092998936</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03098600391393008</v>
+        <v>0.03310801175800014</v>
       </c>
       <c r="D15" t="n">
-        <v>292.3956629493462</v>
+        <v>298.8418997942916</v>
       </c>
       <c r="E15" t="n">
-        <v>64.8950594896813</v>
+        <v>54.3121259702576</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2523,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.13313367111687</v>
+        <v>44.6075811472632</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0309482774430502</v>
+        <v>0.03310767277877112</v>
       </c>
       <c r="D16" t="n">
-        <v>189.0099885707982</v>
+        <v>186.8149191366341</v>
       </c>
       <c r="E16" t="n">
-        <v>64.8579642366509</v>
+        <v>54.31365528372377</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2553,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>626.7829409076685</v>
+        <v>577.2567582473181</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2574,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>78.95641975261087</v>
+        <v>72.71756127121652</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2586,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.95731529173639</v>
+        <v>57.68430086341213</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>242.6672791265003</v>
+        <v>241.5241677151066</v>
       </c>
       <c r="E19" t="n">
-        <v>78.95641975261087</v>
+        <v>72.71756127121652</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2607,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98.7566917595704</v>
+        <v>97.93128785836893</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09698976119084879</v>
+        <v>0.09416078114520078</v>
       </c>
       <c r="D20" t="n">
-        <v>2429.278982804114</v>
+        <v>2650.627425749861</v>
       </c>
       <c r="E20" t="n">
-        <v>30.73454402970442</v>
+        <v>23.70705324578718</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2628,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97.33368791478529</v>
+        <v>96.5197837771393</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09214027313130635</v>
+        <v>0.08945274208794074</v>
       </c>
       <c r="D21" t="n">
-        <v>407.9228747754499</v>
+        <v>404.4924687633197</v>
       </c>
       <c r="E21" t="n">
-        <v>30.73454402970442</v>
+        <v>23.70705324578718</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2649,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>67.76807821839593</v>
+        <v>69.3930891844733</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>283.7449435004237</v>
+        <v>290.5488644153897</v>
       </c>
       <c r="E22" t="n">
-        <v>626.7829409076685</v>
+        <v>577.2567582473181</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2679,7 +2686,7 @@
         <v>381.87174259587</v>
       </c>
       <c r="E23" t="n">
-        <v>626.7829409076685</v>
+        <v>577.2567582473181</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2691,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.42663833350577</v>
+        <v>40.39224645651871</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2700,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>626.7829409076685</v>
+        <v>577.2567582473181</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2712,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.02972792025986</v>
+        <v>72.57987246402416</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03261684622518956</v>
+        <v>0.03485053869263173</v>
       </c>
       <c r="D25" t="n">
-        <v>2312.085640955965</v>
+        <v>2530.441848432407</v>
       </c>
       <c r="E25" t="n">
-        <v>34.1252280439169</v>
+        <v>30.60477129844512</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2733,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>306.9508175561449</v>
+        <v>516.7946050984623</v>
       </c>
       <c r="C26" t="n">
-        <v>5.147382991693704</v>
+        <v>5.748752807021864</v>
       </c>
       <c r="D26" t="n">
-        <v>2942.119034433544</v>
+        <v>3465.685522046174</v>
       </c>
       <c r="E26" t="n">
-        <v>50.45093288721839</v>
+        <v>45.7894915389211</v>
       </c>
       <c r="F26" t="n">
-        <v>6.228005937919898</v>
+        <v>6.955967890137843</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2758,22 +2765,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>143.8650608781682</v>
+        <v>199.0717718560447</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4028567841088689</v>
+        <v>0.3764822092958757</v>
       </c>
       <c r="D27" t="n">
-        <v>2535.520700229833</v>
+        <v>2860.168686802087</v>
       </c>
       <c r="E27" t="n">
-        <v>50.45093288721839</v>
+        <v>45.7894915389211</v>
       </c>
       <c r="F27" t="n">
-        <v>6.406656096127428</v>
+        <v>7.198083284871361</v>
       </c>
       <c r="G27" t="n">
-        <v>90.48794578132629</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -2783,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.7699827079819</v>
+        <v>164.2591857246582</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5039820168895137</v>
+        <v>0.4243172227631666</v>
       </c>
       <c r="D28" t="n">
-        <v>2782.597878630632</v>
+        <v>2782.80148178738</v>
       </c>
       <c r="E28" t="n">
-        <v>18.85038739784712</v>
+        <v>12.96472959171603</v>
       </c>
       <c r="F28" t="n">
-        <v>6.896922371030376</v>
+        <v>6.97402171395005</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2808,22 +2815,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>143.8650608781682</v>
+        <v>190.9198471753616</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4028567841088689</v>
+        <v>0.3764822092958757</v>
       </c>
       <c r="D29" t="n">
-        <v>2602.727219685217</v>
+        <v>2843.096808850504</v>
       </c>
       <c r="E29" t="n">
-        <v>69.30132028506551</v>
+        <v>58.75422113063713</v>
       </c>
       <c r="F29" t="n">
-        <v>6.567816988767228</v>
+        <v>7.161615018757679</v>
       </c>
       <c r="G29" t="n">
-        <v>93.63930722376411</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -2833,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.7580919753089</v>
+        <v>97.93338799999771</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09700481625073941</v>
+        <v>0.09416306648541603</v>
       </c>
       <c r="D30" t="n">
-        <v>2429.281213570041</v>
+        <v>2650.631347177094</v>
       </c>
       <c r="E30" t="n">
-        <v>69.30132028506551</v>
+        <v>58.75422113063713</v>
       </c>
       <c r="F30" t="n">
-        <v>6.712117396551293</v>
+        <v>7.320675987013268</v>
       </c>
       <c r="G30" t="n">
-        <v>89.18762126041486</v>
+        <v>99.04210309929535</v>
       </c>
     </row>
     <row r="31">
@@ -2858,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.034368347677</v>
+        <v>72.58055037718248</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03262334781393182</v>
+        <v>0.0348515430711372</v>
       </c>
       <c r="D31" t="n">
-        <v>2312.096526244841</v>
+        <v>2530.441684216675</v>
       </c>
       <c r="E31" t="n">
-        <v>38.53148883930111</v>
+        <v>35.04686645882465</v>
       </c>
       <c r="F31" t="n">
-        <v>6.821280381277525</v>
+        <v>7.426684725643389</v>
       </c>
       <c r="G31" t="n">
-        <v>86.45046349647416</v>
+        <v>95.69949987524325</v>
       </c>
     </row>
     <row r="32">
@@ -2883,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>41.83671464175751</v>
+        <v>42.6652228249514</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008139385861335394</v>
+        <v>0.00850088515868969</v>
       </c>
       <c r="D32" t="n">
-        <v>2312.096526244841</v>
+        <v>2530.441684216675</v>
       </c>
       <c r="E32" t="n">
-        <v>4.444505256437211</v>
+        <v>4.442223024198746</v>
       </c>
       <c r="F32" t="n">
-        <v>7.380895872620497</v>
+        <v>8.054481839441491</v>
       </c>
       <c r="G32" t="n">
-        <v>88.97832078499593</v>
+        <v>98.00686965599191</v>
       </c>
     </row>
     <row r="33">
@@ -2908,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.64177231698937</v>
+        <v>24.79330538154824</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003102860953905891</v>
+        <v>0.003131078770845107</v>
       </c>
       <c r="D33" t="n">
-        <v>2308.098658239107</v>
+        <v>2525.890296974306</v>
       </c>
       <c r="E33" t="n">
-        <v>4.444505256437211</v>
+        <v>4.442223024198746</v>
       </c>
       <c r="F33" t="n">
-        <v>7.765919652596274</v>
+        <v>8.493138083202906</v>
       </c>
       <c r="G33" t="n">
-        <v>90.26590251315932</v>
+        <v>99.17119958463471</v>
       </c>
     </row>
     <row r="34">
@@ -2933,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.64177231698937</v>
+        <v>24.79330538154824</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003102860953905891</v>
+        <v>0.003131078770845107</v>
       </c>
       <c r="D34" t="n">
-        <v>103.3311683889794</v>
+        <v>103.9648632364524</v>
       </c>
       <c r="E34" t="n">
-        <v>4.444505256437211</v>
+        <v>4.442223024198746</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2954,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.66445424025943</v>
+        <v>26.81608798548052</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>112.4272828867628</v>
+        <v>113.0609589068751</v>
       </c>
       <c r="E35" t="n">
-        <v>4.444505256437211</v>
+        <v>4.442223024198746</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3059,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>297.4394431684639</v>
+        <v>504.672087832381</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3018.231672449237</v>
+        <v>3478.551647610521</v>
       </c>
       <c r="E40" t="n">
-        <v>7.232584671982969</v>
+        <v>10.16423402859154</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3089,7 +3096,7 @@
         <v>201.2441175284285</v>
       </c>
       <c r="E41" t="n">
-        <v>8.822462577792319</v>
+        <v>11.81315649273646</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3101,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>312.4394431684639</v>
+        <v>519.672087832381</v>
       </c>
       <c r="C42" t="n">
-        <v>5.643566194626771</v>
+        <v>6.377919979396363</v>
       </c>
       <c r="D42" t="n">
-        <v>2941.717877081563</v>
+        <v>3465.680875431442</v>
       </c>
       <c r="E42" t="n">
-        <v>8.822462577792319</v>
+        <v>11.81315649273646</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3212,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.520355573136333</v>
+        <v>11.97398882693314</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3255,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.520355573136333</v>
+        <v>11.97398882693314</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3298,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.520355573136333</v>
+        <v>11.97398882693314</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3341,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.520355573136333</v>
+        <v>11.97398882693314</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3384,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.389021719505005</v>
+        <v>4.762724730823547</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3399,10 +3406,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944172</v>
+        <v>0.05094889585944165</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173058</v>
@@ -3630,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.202827720554715</v>
+        <v>1.896141649237895</v>
       </c>
       <c r="C2" t="n">
-        <v>1.420501685273488</v>
+        <v>2.147649572035696</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8467626142401481</v>
+        <v>0.8828915452163811</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2958737523600144</v>
+        <v>0.2071049581758934</v>
       </c>
     </row>
     <row r="3">
@@ -3672,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>112.9635315642562</v>
+        <v>120.8901791116348</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>30.38587178337565</v>
+        <v>31.04522799385986</v>
       </c>
     </row>
     <row r="6">
@@ -3687,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.189570732085403</v>
+        <v>6.206389330624661</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3699,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.06637151009338</v>
+        <v>43.26695564395818</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3712,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.5132652709662</v>
+        <v>27.72630800408344</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8451463427477786</v>
+        <v>0.8485678922284949</v>
       </c>
     </row>
     <row r="9">
@@ -3727,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.0200372219532</v>
+        <v>11.3081582951697</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.763700851311664</v>
+        <v>0.7652996059321228</v>
       </c>
     </row>
     <row r="10">
@@ -3742,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.515300471807961</v>
+        <v>4.212271067504945</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7572179480527299</v>
+        <v>0.7663196192120786</v>
       </c>
     </row>
     <row r="11">
@@ -3757,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01776854536602618</v>
+        <v>0.02021827720009375</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03369327341142488</v>
+        <v>0.03365263743715988</v>
       </c>
     </row>
     <row r="12">
@@ -3772,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04042772869855311</v>
+        <v>0.0404068856174665</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04531091036864457</v>
+        <v>0.04528821887511094</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8922294513537153</v>
+        <v>0.8922162677427113</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3849,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9395.139394257681</v>
+        <v>39735.46925311728</v>
       </c>
       <c r="C2" t="n">
-        <v>9490.039792179476</v>
+        <v>40136.8376294114</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3865,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114742.200332833</v>
+        <v>87945.79037692415</v>
       </c>
       <c r="C3" t="n">
-        <v>115901.2124574071</v>
+        <v>88834.13169386279</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3881,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8602.912102315209</v>
+        <v>33016.6052503168</v>
       </c>
       <c r="C4" t="n">
-        <v>8689.810204358797</v>
+        <v>33350.10631345131</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3897,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.9941622048278</v>
+        <v>440.7682669228166</v>
       </c>
       <c r="C5" t="n">
-        <v>447.4688507119473</v>
+        <v>445.2204716392087</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3913,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41598.98363316187</v>
+        <v>28291.05238498511</v>
       </c>
       <c r="C6" t="n">
-        <v>42019.17538703219</v>
+        <v>28576.82059089405</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3929,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36308.42891941385</v>
+        <v>31335.40392099188</v>
       </c>
       <c r="C7" t="n">
-        <v>36675.18072668066</v>
+        <v>31651.92315251705</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3945,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61.50420371889975</v>
+        <v>52.7167486122788</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3959,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>71.75323909345093</v>
+        <v>70.09428420825884</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3973,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.630758482727454</v>
+        <v>6.023695003588921</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3987,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21360.27331794922</v>
+        <v>34697.22722118874</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -3999,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2817.453871130127</v>
+        <v>3866.075060560825</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4011,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19381.90547760721</v>
+        <v>22559.34963119361</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4023,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5604.194874431852</v>
+        <v>7875.794177179138</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4035,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4048.777144838933</v>
+        <v>5689.904826025727</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4047,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15029.20623045501</v>
+        <v>21121.13114721799</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4059,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27499.63212085592</v>
+        <v>38552.90521098368</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4085,7 +4092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4109,6 +4116,11 @@
           <t>V</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Qnr</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4119,6 +4131,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4127,12 +4140,9 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>250</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10000</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4195,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7069649868277829</v>
+        <v>0.7565726982840538</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4333,7 +4343,7 @@
         <v>952.9657080173359</v>
       </c>
       <c r="E3" t="n">
-        <v>421.1016163642966</v>
+        <v>437.8430309320735</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -4367,7 +4377,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>11.67494587719425</v>
+        <v>13.58892118595777</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -4392,31 +4402,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>545.0533741721115</v>
+        <v>545.9628898260568</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>968.5625868802144</v>
+        <v>970.3693139382099</v>
       </c>
       <c r="E5" t="n">
-        <v>432.7765622414909</v>
+        <v>451.4319521180312</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7783678096606331</v>
+        <v>0.7781441493569233</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1205597390487384</v>
+        <v>0.1201962387745795</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03176875938649731</v>
+        <v>0.0319619262932964</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06274453632729386</v>
+        <v>0.06313168245647706</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006559155576837259</v>
+        <v>0.006566003118723783</v>
       </c>
     </row>
     <row r="6">
@@ -4426,31 +4436,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>526.0346116038232</v>
+        <v>468.3697453894343</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>946.6343203793035</v>
+        <v>881.4592635062519</v>
       </c>
       <c r="E6" t="n">
-        <v>432.7765622414909</v>
+        <v>451.4319521180312</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7783678096606331</v>
+        <v>0.7781441493569233</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1205597390487384</v>
+        <v>0.1201962387745795</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03176875938649731</v>
+        <v>0.0319619262932964</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06274453632729386</v>
+        <v>0.06313168245647706</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006559155576837259</v>
+        <v>0.006566003118723783</v>
       </c>
     </row>
     <row r="7">
@@ -4460,31 +4470,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>286.6848982516827</v>
+        <v>291.4294296579154</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>678.8258885707116</v>
+        <v>684.6762682462348</v>
       </c>
       <c r="E7" t="n">
-        <v>432.7765622414909</v>
+        <v>451.4319521180312</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7783678096606331</v>
+        <v>0.7781441493569233</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1205597390487384</v>
+        <v>0.1201962387745795</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03176875938649731</v>
+        <v>0.0319619262932964</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06274453632729386</v>
+        <v>0.06313168245647706</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006559155576837259</v>
+        <v>0.006566003118723783</v>
       </c>
     </row>
     <row r="8">
@@ -4494,31 +4504,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>268.1890668041755</v>
+        <v>223.0997203969673</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>658.7466815097945</v>
+        <v>610.8000037129445</v>
       </c>
       <c r="E8" t="n">
-        <v>432.7765622414909</v>
+        <v>451.4319521180312</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7783678096606331</v>
+        <v>0.7781441493569233</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1205597390487384</v>
+        <v>0.1201962387745795</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03176875938649731</v>
+        <v>0.0319619262932964</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06274453632729386</v>
+        <v>0.06313168245647706</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006559155576837259</v>
+        <v>0.006566003118723783</v>
       </c>
     </row>
     <row r="9">
@@ -4528,31 +4538,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>267.2346094122848</v>
+        <v>222.1808765111423</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>657.7127326092478</v>
+        <v>609.813763218557</v>
       </c>
       <c r="E9" t="n">
-        <v>432.7765622414909</v>
+        <v>451.4319521180312</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7783678096606331</v>
+        <v>0.7781441493569233</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1205597390487384</v>
+        <v>0.1201962387745795</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03176875938649731</v>
+        <v>0.0319619262932964</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06274453632729386</v>
+        <v>0.06313168245647706</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006559155576837259</v>
+        <v>0.006566003118723783</v>
       </c>
     </row>
     <row r="10">
@@ -4562,31 +4572,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.7617710757321</v>
+        <v>162.867133393733</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>560.6206554195747</v>
+        <v>546.5111536960871</v>
       </c>
       <c r="E10" t="n">
-        <v>432.7765622414909</v>
+        <v>451.4319521180312</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7783678096606331</v>
+        <v>0.7781441493569233</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1205597390487384</v>
+        <v>0.1201962387745795</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03176875938649731</v>
+        <v>0.0319619262932964</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06274453632729386</v>
+        <v>0.06313168245647706</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006559155576837259</v>
+        <v>0.006566003118723783</v>
       </c>
     </row>
     <row r="11">
@@ -4596,31 +4606,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.6041530734197</v>
+        <v>96.4890271560386</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>475.8767392131888</v>
+        <v>476.3966591327042</v>
       </c>
       <c r="E11" t="n">
-        <v>432.7765622414909</v>
+        <v>451.4319521180312</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7783678096606331</v>
+        <v>0.7781441493569233</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1205597390487384</v>
+        <v>0.1201962387745795</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03176875938649731</v>
+        <v>0.0319619262932964</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06274453632729386</v>
+        <v>0.06313168245647706</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006559155576837259</v>
+        <v>0.006566003118723783</v>
       </c>
     </row>
     <row r="12">
@@ -4639,7 +4649,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>11.06678677595411</v>
+        <v>12.8810612796075</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4663,7 +4673,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6081591012401527</v>
+        <v>0.7078599063502831</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4746,16 +4756,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>321.2347333735477</v>
+        <v>508.3504234641159</v>
       </c>
       <c r="C3" t="n">
-        <v>6.581032111648194</v>
+        <v>7.744273365626974</v>
       </c>
       <c r="D3" t="n">
-        <v>2937.543440815923</v>
+        <v>3423.075308969407</v>
       </c>
       <c r="E3" t="n">
-        <v>67.54127069214996</v>
+        <v>63.69512506687997</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4767,16 +4777,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.5103246108762</v>
+        <v>296.0286597214093</v>
       </c>
       <c r="C4" t="n">
-        <v>7.070772112899792</v>
+        <v>8.11763636981134</v>
       </c>
       <c r="D4" t="n">
-        <v>2771.704929736634</v>
+        <v>2756.92212550811</v>
       </c>
       <c r="E4" t="n">
-        <v>67.54127069214996</v>
+        <v>63.69512506687997</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4788,16 +4798,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>207.9086607834853</v>
+        <v>294.5913414021587</v>
       </c>
       <c r="C5" t="n">
-        <v>7.070772112899792</v>
+        <v>8.11763636981134</v>
       </c>
       <c r="D5" t="n">
-        <v>890.0145254392152</v>
+        <v>1314.857505609909</v>
       </c>
       <c r="E5" t="n">
-        <v>67.54127069214996</v>
+        <v>63.69512506687997</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4809,16 +4819,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>173.3738890685138</v>
+        <v>161.6399148027828</v>
       </c>
       <c r="C6" t="n">
-        <v>7.070772112899792</v>
+        <v>8.11763636981134</v>
       </c>
       <c r="D6" t="n">
-        <v>737.2181974591938</v>
+        <v>686.9588796671584</v>
       </c>
       <c r="E6" t="n">
-        <v>67.54127069214996</v>
+        <v>63.69512506687997</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4830,16 +4840,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.172812222214</v>
+        <v>160.2929632792961</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8346613726026516</v>
+        <v>0.6228549252207565</v>
       </c>
       <c r="D7" t="n">
-        <v>728.6053837179007</v>
+        <v>676.7463853250251</v>
       </c>
       <c r="E7" t="n">
-        <v>67.54127069214996</v>
+        <v>63.69512506687997</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4851,16 +4861,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>181.0684536163992</v>
+        <v>174.0425431468433</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8242503655312177</v>
+        <v>0.6164727815299837</v>
       </c>
       <c r="D8" t="n">
-        <v>2793.370850008752</v>
+        <v>2791.211235888313</v>
       </c>
       <c r="E8" t="n">
-        <v>22.76299693240444</v>
+        <v>15.19051858685466</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4872,16 +4882,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>172.1728120696422</v>
+        <v>160.2929631522248</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8346613726026516</v>
+        <v>0.6228549252207565</v>
       </c>
       <c r="D9" t="n">
-        <v>2770.026135049358</v>
+        <v>2757.763248007559</v>
       </c>
       <c r="E9" t="n">
-        <v>22.76299693240444</v>
+        <v>15.19051858685466</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4893,16 +4903,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>169.023687904446</v>
+        <v>156.7137953451643</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8346613726026516</v>
+        <v>0.6228549252207565</v>
       </c>
       <c r="D10" t="n">
-        <v>714.8443427825607</v>
+        <v>661.2457575868832</v>
       </c>
       <c r="E10" t="n">
-        <v>90.3042676245544</v>
+        <v>78.88564365373462</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4914,16 +4924,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>169.023687904446</v>
+        <v>156.7137953451643</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8346613726026516</v>
+        <v>0.6228549252207565</v>
       </c>
       <c r="D11" t="n">
-        <v>714.8443427825607</v>
+        <v>661.2457575868832</v>
       </c>
       <c r="E11" t="n">
-        <v>100.2908629727947</v>
+        <v>94.066343673934</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4938,13 +4948,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8346613726026516</v>
+        <v>0.6228549252207565</v>
       </c>
       <c r="D12" t="n">
-        <v>251.8644876390946</v>
+        <v>251.6866416811704</v>
       </c>
       <c r="E12" t="n">
-        <v>100.3143018471411</v>
+        <v>94.06421518042521</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4956,16 +4966,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.75645442545135</v>
+        <v>41.13405238887316</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>200.5543619649042</v>
+        <v>172.881635048879</v>
       </c>
       <c r="E13" t="n">
-        <v>82.03325344640712</v>
+        <v>72.78915986807704</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4977,16 +4987,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.75645442545135</v>
+        <v>41.13405238887316</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>200.5543619649042</v>
+        <v>172.881635048879</v>
       </c>
       <c r="E14" t="n">
-        <v>82.03325344640712</v>
+        <v>72.78915986807704</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4998,16 +5008,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>69.84025624854121</v>
+        <v>70.46964732044506</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03098600391393008</v>
+        <v>0.03184012856108867</v>
       </c>
       <c r="D15" t="n">
-        <v>292.3956629493462</v>
+        <v>295.033705712978</v>
       </c>
       <c r="E15" t="n">
-        <v>64.8950594896813</v>
+        <v>54.55974440682168</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -5019,16 +5029,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.13313367111687</v>
+        <v>44.47931912491043</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0309482774430502</v>
+        <v>0.03184012856109181</v>
       </c>
       <c r="D16" t="n">
-        <v>189.0099885707982</v>
+        <v>186.2776464420998</v>
       </c>
       <c r="E16" t="n">
-        <v>64.8579642366509</v>
+        <v>54.55974440681675</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5049,7 +5059,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>626.7829409076685</v>
+        <v>576.3228249761745</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -5070,7 +5080,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>78.95641975261087</v>
+        <v>72.59991284372333</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -5082,16 +5092,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.95731529173639</v>
+        <v>57.22510775754733</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>242.6672791265003</v>
+        <v>239.6015261808507</v>
       </c>
       <c r="E19" t="n">
-        <v>78.95641975261087</v>
+        <v>72.59991284372333</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -5103,16 +5113,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98.7566917595704</v>
+        <v>105.9590807958605</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09698976119084879</v>
+        <v>0.09484894931386989</v>
       </c>
       <c r="D20" t="n">
-        <v>2429.278982804114</v>
+        <v>2639.01023488217</v>
       </c>
       <c r="E20" t="n">
-        <v>30.73454402970442</v>
+        <v>24.72875294597938</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5124,16 +5134,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97.33368791478529</v>
+        <v>96.71962009185224</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09214027313130635</v>
+        <v>0.0901065018481764</v>
       </c>
       <c r="D21" t="n">
-        <v>407.9228747754499</v>
+        <v>405.3346593903703</v>
       </c>
       <c r="E21" t="n">
-        <v>30.73454402970442</v>
+        <v>24.72875294597938</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5145,16 +5155,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>67.76807821839593</v>
+        <v>68.54263826506204</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>283.7449435004237</v>
+        <v>286.9880264158148</v>
       </c>
       <c r="E22" t="n">
-        <v>626.7829409076685</v>
+        <v>576.3228249761745</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -5175,7 +5185,7 @@
         <v>381.87174259587</v>
       </c>
       <c r="E23" t="n">
-        <v>626.7829409076685</v>
+        <v>576.3228249761745</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -5187,7 +5197,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.42663833350577</v>
+        <v>40.33440148141191</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5196,7 +5206,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>626.7829409076685</v>
+        <v>576.3228249761745</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -5208,16 +5218,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.02972792025986</v>
+        <v>71.6641399995986</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03261684622518956</v>
+        <v>0.03351592480114597</v>
       </c>
       <c r="D25" t="n">
-        <v>2312.085640955965</v>
+        <v>2508.44403354626</v>
       </c>
       <c r="E25" t="n">
-        <v>34.1252280439169</v>
+        <v>29.83099146084382</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5229,19 +5239,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>315.4159949529571</v>
+        <v>505.4324367763471</v>
       </c>
       <c r="C26" t="n">
-        <v>6.033099279970465</v>
+        <v>7.128221493076012</v>
       </c>
       <c r="D26" t="n">
-        <v>2937.543440815923</v>
+        <v>3423.075308969407</v>
       </c>
       <c r="E26" t="n">
-        <v>59.27025651400267</v>
+        <v>57.59864128122884</v>
       </c>
       <c r="F26" t="n">
-        <v>6.157748049254089</v>
+        <v>6.807091125836556</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5254,22 +5264,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>154.1109549658538</v>
+        <v>188.6765051636854</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5310021692072151</v>
+        <v>0.4640308072801833</v>
       </c>
       <c r="D27" t="n">
-        <v>2550.181593881924</v>
+        <v>2833.465864941214</v>
       </c>
       <c r="E27" t="n">
-        <v>59.27025651400267</v>
+        <v>57.59864128122884</v>
       </c>
       <c r="F27" t="n">
-        <v>6.33092705720304</v>
+        <v>7.046680927610476</v>
       </c>
       <c r="G27" t="n">
-        <v>90.45143727837323</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -5279,19 +5289,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>176.8239884468482</v>
+        <v>171.380384192796</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6784633999348487</v>
+        <v>0.5297003777065983</v>
       </c>
       <c r="D28" t="n">
-        <v>2793.370850008752</v>
+        <v>2791.211235888313</v>
       </c>
       <c r="E28" t="n">
-        <v>22.76299693240444</v>
+        <v>15.19051858685466</v>
       </c>
       <c r="F28" t="n">
-        <v>6.789720441612542</v>
+        <v>6.894298740478463</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5304,22 +5314,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>154.1109549658538</v>
+        <v>184.5908356503901</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5310021692072151</v>
+        <v>0.4640308072801833</v>
       </c>
       <c r="D29" t="n">
-        <v>2617.66296343196</v>
+        <v>2824.64766001658</v>
       </c>
       <c r="E29" t="n">
-        <v>82.03325344640712</v>
+        <v>72.78915986808349</v>
       </c>
       <c r="F29" t="n">
-        <v>6.488866529007615</v>
+        <v>7.027501694267032</v>
       </c>
       <c r="G29" t="n">
-        <v>93.6635512619104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -5329,22 +5339,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>127.8492798449104</v>
+        <v>105.9590807958584</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2533406604845464</v>
+        <v>0.1249724019458046</v>
       </c>
       <c r="D30" t="n">
-        <v>2513.323297276268</v>
+        <v>2639.010234882161</v>
       </c>
       <c r="E30" t="n">
-        <v>82.03325344640712</v>
+        <v>72.78915986808349</v>
       </c>
       <c r="F30" t="n">
-        <v>6.539847090548264</v>
+        <v>7.163095734713202</v>
       </c>
       <c r="G30" t="n">
-        <v>90.65193640511646</v>
+        <v>97.95308321523348</v>
       </c>
     </row>
     <row r="31">
@@ -5354,22 +5364,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.8637249026597</v>
+        <v>71.66413999959809</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1525890648351545</v>
+        <v>0.03351592480114771</v>
       </c>
       <c r="D31" t="n">
-        <v>2447.966821977493</v>
+        <v>2508.444033546241</v>
       </c>
       <c r="E31" t="n">
-        <v>82.03325344640712</v>
+        <v>48.06040692210562</v>
       </c>
       <c r="F31" t="n">
-        <v>6.578541210937933</v>
+        <v>7.380023754179142</v>
       </c>
       <c r="G31" t="n">
-        <v>88.94554715459296</v>
+        <v>94.82616025478752</v>
       </c>
     </row>
     <row r="32">
@@ -5379,22 +5389,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>111.8637249026597</v>
+        <v>71.66413999959809</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1525890648351545</v>
+        <v>0.03351592480114771</v>
       </c>
       <c r="D32" t="n">
-        <v>2447.966821977493</v>
+        <v>2508.444033546241</v>
       </c>
       <c r="E32" t="n">
-        <v>82.03325344640712</v>
+        <v>18.22941546126028</v>
       </c>
       <c r="F32" t="n">
-        <v>6.578541210937933</v>
+        <v>7.380023754179142</v>
       </c>
       <c r="G32" t="n">
-        <v>88.94554715459296</v>
+        <v>94.82616025478752</v>
       </c>
     </row>
     <row r="33">
@@ -5404,22 +5414,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>47.67769661803243</v>
+        <v>29.51179907019997</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01099699789193781</v>
+        <v>0.004129391455783425</v>
       </c>
       <c r="D33" t="n">
-        <v>2154.053632694463</v>
+        <v>2361.934294111114</v>
       </c>
       <c r="E33" t="n">
-        <v>82.03325344640712</v>
+        <v>18.22941546126028</v>
       </c>
       <c r="F33" t="n">
-        <v>6.765468006252875</v>
+        <v>7.825206556284032</v>
       </c>
       <c r="G33" t="n">
-        <v>81.85898790903667</v>
+        <v>92.07190047611785</v>
       </c>
     </row>
     <row r="34">
@@ -5429,16 +5439,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.67769661848064</v>
+        <v>29.51179907019997</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01099699789193781</v>
+        <v>0.004129391455783425</v>
       </c>
       <c r="D34" t="n">
-        <v>199.6304881366969</v>
+        <v>123.6931206969421</v>
       </c>
       <c r="E34" t="n">
-        <v>82.03325344640712</v>
+        <v>18.22941546126028</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5450,16 +5460,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.75645442545135</v>
+        <v>31.53729083390454</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>200.5543619649042</v>
+        <v>132.7880314312451</v>
       </c>
       <c r="E35" t="n">
-        <v>82.03325344640712</v>
+        <v>18.22941546126028</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5555,16 +5565,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>297.4394431684639</v>
+        <v>504.672087832381</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3018.231672449237</v>
+        <v>3478.551647610521</v>
       </c>
       <c r="E40" t="n">
-        <v>7.232584671982969</v>
+        <v>10.16423402859154</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5597,16 +5607,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>312.4394431684639</v>
+        <v>519.672087832381</v>
       </c>
       <c r="C42" t="n">
-        <v>5.643566194626771</v>
+        <v>6.377919979396363</v>
       </c>
       <c r="D42" t="n">
-        <v>2941.717877081563</v>
+        <v>3465.680875431442</v>
       </c>
       <c r="E42" t="n">
-        <v>8.822462577792319</v>
+        <v>11.81315649273646</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
